--- a/Team 34 Code/Robot Control Layout.xlsx
+++ b/Team 34 Code/Robot Control Layout.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Coleman Cook\Documents\LabVIEW Data\2017 Robot Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Coleman Cook\Documents\LabVIEW Data\2017 Robot Project\Team 34 Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Mechanism</t>
   </si>
@@ -101,9 +101,6 @@
     <t>(1) Button 0 and 3</t>
   </si>
   <si>
-    <t>(0) Button 0 and 3</t>
-  </si>
-  <si>
     <t>(1) Button 2</t>
   </si>
   <si>
@@ -120,6 +117,18 @@
   </si>
   <si>
     <t>Production Robot Control Layout</t>
+  </si>
+  <si>
+    <t>Invert Drive</t>
+  </si>
+  <si>
+    <t>Button 9</t>
+  </si>
+  <si>
+    <t>(1) Button 4 and 5</t>
+  </si>
+  <si>
+    <t>(0) Button 0</t>
   </si>
 </sst>
 </file>
@@ -192,8 +201,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:D9" totalsRowShown="0">
-  <autoFilter ref="A2:D9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:D10" totalsRowShown="0">
+  <autoFilter ref="A2:D10"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Mechanism"/>
     <tableColumn id="2" name="Port(s)"/>
@@ -501,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +526,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -562,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -576,7 +585,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -590,7 +599,7 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -604,7 +613,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -618,7 +627,7 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -629,10 +638,24 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
-        <v>30</v>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Team 34 Code/Robot Control Layout.xlsx
+++ b/Team 34 Code/Robot Control Layout.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -513,7 +513,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
